--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>matern32</t>
   </si>
@@ -80,6 +80,9 @@
   <si>
     <t>pca 99%</t>
   </si>
+  <si>
+    <t>results on single value length-scale</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -128,14 +131,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +456,7 @@
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -471,8 +475,35 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>47.94</v>
+      </c>
+      <c r="J1" s="1">
+        <v>74.13</v>
+      </c>
+      <c r="K1" s="1">
+        <v>94.06</v>
+      </c>
+      <c r="L1" s="1">
+        <v>99.96</v>
+      </c>
+      <c r="N1" s="1">
+        <v>27.45</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41.58</v>
+      </c>
+      <c r="P1" s="1">
+        <v>65.83</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>88.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>47.94</v>
       </c>
@@ -491,8 +522,35 @@
       <c r="F2" s="1">
         <v>50.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>58.51</v>
+      </c>
+      <c r="J2" s="1">
+        <v>83.42</v>
+      </c>
+      <c r="K2" s="1">
+        <v>98.35</v>
+      </c>
+      <c r="L2" s="1">
+        <v>99.98</v>
+      </c>
+      <c r="N2" s="1">
+        <v>30.76</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44.59</v>
+      </c>
+      <c r="P2" s="1">
+        <v>68.34</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>88.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>74.13</v>
       </c>
@@ -511,8 +569,35 @@
       <c r="F3" s="1">
         <v>80.510000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>81.23</v>
+      </c>
+      <c r="K3" s="1">
+        <v>97.52</v>
+      </c>
+      <c r="L3" s="1">
+        <v>99.98</v>
+      </c>
+      <c r="N3" s="1">
+        <v>29.56</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45.29</v>
+      </c>
+      <c r="P3" s="1">
+        <v>68.44</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>94.06</v>
       </c>
@@ -531,8 +616,35 @@
       <c r="F4" s="1">
         <v>97.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>56.18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>85.61</v>
+      </c>
+      <c r="L4" s="1">
+        <v>99.63</v>
+      </c>
+      <c r="N4" s="1">
+        <v>23.75</v>
+      </c>
+      <c r="O4" s="1">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>65.23</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>99.96</v>
       </c>
@@ -551,8 +663,64 @@
       <c r="F5" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45.19</v>
+      </c>
+      <c r="J5" s="1">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="K5" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="O5" s="1">
+        <v>41.98</v>
+      </c>
+      <c r="P5" s="1">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>90.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50.92</v>
+      </c>
+      <c r="J6" s="1">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="K6" s="1">
+        <v>97.86</v>
+      </c>
+      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>29.46</v>
+      </c>
+      <c r="O6" s="1">
+        <v>42.79</v>
+      </c>
+      <c r="P6" s="1">
+        <v>64.73</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>86.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>27.45</v>
       </c>
@@ -572,7 +740,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41.58</v>
       </c>
@@ -592,7 +760,7 @@
         <v>42.79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>65.83</v>
       </c>
@@ -612,7 +780,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>88.38</v>
       </c>
@@ -632,12 +800,12 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -648,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -661,11 +829,11 @@
       <c r="D14" s="3">
         <v>56.1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>74.13</v>
       </c>
@@ -675,9 +843,9 @@
       <c r="D15" s="1">
         <v>81.23</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>94.06</v>
       </c>
@@ -687,9 +855,9 @@
       <c r="D16" s="1">
         <v>97.52</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>99.96</v>
       </c>
@@ -699,9 +867,9 @@
       <c r="D17" s="1">
         <v>99.98</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>27.45</v>
       </c>
@@ -711,11 +879,11 @@
       <c r="D19" s="1">
         <v>29.56</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>41.58</v>
       </c>
@@ -725,9 +893,9 @@
       <c r="D20" s="1">
         <v>45.29</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>65.83</v>
       </c>
@@ -737,9 +905,9 @@
       <c r="D21" s="1">
         <v>68.44</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>88.38</v>
       </c>
@@ -749,9 +917,9 @@
       <c r="D22" s="1">
         <v>87.88</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -764,8 +932,20 @@
       <c r="D23" s="1">
         <v>39.56</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="7">
+        <f>B23/400 *60</f>
+        <v>5.8905000000000012</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:I23" si="0">C23/400 *60</f>
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9340000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -778,11 +958,11 @@
       <c r="D25" s="1">
         <v>57.65</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>68.66</v>
       </c>
@@ -792,9 +972,9 @@
       <c r="D26" s="1">
         <v>78.819999999999993</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>89.23</v>
       </c>
@@ -804,9 +984,9 @@
       <c r="D27" s="3">
         <v>96</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>99.89</v>
       </c>
@@ -816,9 +996,9 @@
       <c r="D28" s="1">
         <v>99.88</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>24.45</v>
       </c>
@@ -828,11 +1008,11 @@
       <c r="D30" s="1">
         <v>30.36</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>38.28</v>
       </c>
@@ -842,9 +1022,9 @@
       <c r="D31" s="1">
         <v>40.98</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>60.72</v>
       </c>
@@ -854,9 +1034,9 @@
       <c r="D32" s="1">
         <v>62.73</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>85.57</v>
       </c>
@@ -866,9 +1046,9 @@
       <c r="D33" s="1">
         <v>84.77</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -881,8 +1061,20 @@
       <c r="D34" s="1">
         <v>58.63</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="7">
+        <f>B34/400 * 60</f>
+        <v>9.0090000000000003</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" ref="H34:I34" si="1">C34/400 * 60</f>
+        <v>8.8530000000000015</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>8.7945000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -895,11 +1087,11 @@
       <c r="D36" s="1">
         <v>29.24</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>31.98</v>
       </c>
@@ -909,9 +1101,9 @@
       <c r="D37" s="1">
         <v>57.01</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>60.23</v>
       </c>
@@ -921,9 +1113,9 @@
       <c r="D38" s="1">
         <v>78.88</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>81.73</v>
       </c>
@@ -933,9 +1125,9 @@
       <c r="D39" s="1">
         <v>95.47</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>13.03</v>
       </c>
@@ -945,11 +1137,11 @@
       <c r="D41" s="1">
         <v>20.239999999999998</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>26.55</v>
       </c>
@@ -959,9 +1151,9 @@
       <c r="D42" s="1">
         <v>36.770000000000003</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>52.4</v>
       </c>
@@ -971,9 +1163,9 @@
       <c r="D43" s="1">
         <v>59.12</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>77.86</v>
       </c>
@@ -983,9 +1175,9 @@
       <c r="D44" s="1">
         <v>83.77</v>
       </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -997,6 +1189,18 @@
       </c>
       <c r="D45" s="1">
         <v>59.46</v>
+      </c>
+      <c r="G45" s="7">
+        <f>B45/400 * 60</f>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" ref="H45:I45" si="2">C45/400 * 60</f>
+        <v>9.0434999999999999</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="2"/>
+        <v>8.9190000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -1125,26 +1329,26 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>256</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="6">
         <v>128</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <v>64</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5">
         <v>32</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4">
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
         <v>16</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58" s="5"/>
       <c r="L58" t="s">
         <v>20</v>
       </c>
@@ -1188,13 +1392,13 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="1">
         <v>31.31</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>16.600000000000001</v>
       </c>
       <c r="D60" s="3">
@@ -1224,9 +1428,12 @@
       <c r="L60" s="1">
         <v>22.68</v>
       </c>
+      <c r="M60" s="1">
+        <v>23.08</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1">
         <v>54.31</v>
       </c>
@@ -1248,7 +1455,7 @@
       <c r="H61" s="1">
         <v>54.04</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <v>78.8</v>
       </c>
       <c r="J61" s="3">
@@ -1260,13 +1467,16 @@
       <c r="L61" s="1">
         <v>48.24</v>
       </c>
+      <c r="M61" s="1">
+        <v>51.97</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1">
         <v>76.39</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>64.7</v>
       </c>
       <c r="D62" s="1">
@@ -1296,9 +1506,12 @@
       <c r="L62" s="1">
         <v>69.510000000000005</v>
       </c>
+      <c r="M62" s="1">
+        <v>71.11</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="1">
         <v>91.82</v>
       </c>
@@ -1314,7 +1527,7 @@
       <c r="F63" s="1">
         <v>93.85</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3">
         <v>98.9</v>
       </c>
       <c r="H63" s="1">
@@ -1332,9 +1545,12 @@
       <c r="L63" s="1">
         <v>88.39</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="M63" s="1">
+        <v>87.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="1">
@@ -1370,9 +1586,12 @@
       <c r="L65" s="1">
         <v>12.83</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="M65" s="1">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
       <c r="B66" s="1">
         <v>30.63</v>
       </c>
@@ -1406,9 +1625,12 @@
       <c r="L66" s="1">
         <v>28.59</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="M66" s="3">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
       <c r="B67" s="1">
         <v>52.25</v>
       </c>
@@ -1442,9 +1664,12 @@
       <c r="L67" s="1">
         <v>47.29</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="M67" s="1">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
       <c r="B68" s="1">
         <v>78.290000000000006</v>
       </c>
@@ -1478,14 +1703,359 @@
       <c r="L68" s="1">
         <v>75.08</v>
       </c>
+      <c r="M68" s="1">
+        <v>72.680000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>59.31</v>
+      </c>
+      <c r="J72" s="1">
+        <v>78.02</v>
+      </c>
+      <c r="K72" s="1">
+        <v>95.31</v>
+      </c>
+      <c r="L72" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="M72" s="1">
+        <v>27.66</v>
+      </c>
+      <c r="N72" s="1">
+        <v>36.97</v>
+      </c>
+      <c r="O72" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="P72" s="1">
+        <v>75.849999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>59.31</v>
+      </c>
+      <c r="B73" s="1">
+        <v>60.77</v>
+      </c>
+      <c r="C73" s="1">
+        <v>59.85</v>
+      </c>
+      <c r="D73" s="1">
+        <v>50.42</v>
+      </c>
+      <c r="E73" s="1">
+        <v>48.88</v>
+      </c>
+      <c r="F73" s="1">
+        <v>54.24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>60.77</v>
+      </c>
+      <c r="J73" s="1">
+        <v>78.89</v>
+      </c>
+      <c r="K73" s="1">
+        <v>94.43</v>
+      </c>
+      <c r="L73" s="1">
+        <v>99.46</v>
+      </c>
+      <c r="M73" s="1">
+        <v>30.76</v>
+      </c>
+      <c r="N73" s="1">
+        <v>40.58</v>
+      </c>
+      <c r="O73" s="1">
+        <v>58.02</v>
+      </c>
+      <c r="P73" s="1">
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>78.02</v>
+      </c>
+      <c r="B74" s="1">
+        <v>78.89</v>
+      </c>
+      <c r="C74" s="1">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="D74" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E74" s="1">
+        <v>77.16</v>
+      </c>
+      <c r="F74" s="1">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>59.85</v>
+      </c>
+      <c r="J74" s="1">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="K74" s="3">
+        <v>95</v>
+      </c>
+      <c r="L74" s="1">
+        <v>99.38</v>
+      </c>
+      <c r="M74" s="1">
+        <v>30.26</v>
+      </c>
+      <c r="N74" s="1">
+        <v>38.78</v>
+      </c>
+      <c r="O74" s="1">
+        <v>53.31</v>
+      </c>
+      <c r="P74" s="1">
+        <v>77.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>95.31</v>
+      </c>
+      <c r="B75" s="1">
+        <v>94.43</v>
+      </c>
+      <c r="C75" s="3">
+        <v>95</v>
+      </c>
+      <c r="D75" s="1">
+        <v>97.91</v>
+      </c>
+      <c r="E75" s="1">
+        <v>96.48</v>
+      </c>
+      <c r="F75" s="1">
+        <v>96.72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>50.42</v>
+      </c>
+      <c r="J75" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K75" s="1">
+        <v>97.91</v>
+      </c>
+      <c r="L75" s="3">
+        <v>100</v>
+      </c>
+      <c r="M75" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="N75" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="O75" s="1">
+        <v>53.81</v>
+      </c>
+      <c r="P75" s="1">
+        <v>75.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="B76" s="1">
+        <v>99.46</v>
+      </c>
+      <c r="C76" s="1">
+        <v>99.38</v>
+      </c>
+      <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1">
+        <v>99.96</v>
+      </c>
+      <c r="F76" s="1">
+        <v>99.77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>48.88</v>
+      </c>
+      <c r="J76" s="1">
+        <v>77.16</v>
+      </c>
+      <c r="K76" s="1">
+        <v>96.48</v>
+      </c>
+      <c r="L76" s="1">
+        <v>99.96</v>
+      </c>
+      <c r="M76" s="1">
+        <v>27.15</v>
+      </c>
+      <c r="N76" s="1">
+        <v>39.68</v>
+      </c>
+      <c r="O76" s="1">
+        <v>53.51</v>
+      </c>
+      <c r="P76" s="1">
+        <v>75.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>27.66</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30.76</v>
+      </c>
+      <c r="C77" s="1">
+        <v>30.26</v>
+      </c>
+      <c r="D77" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="E77" s="1">
+        <v>27.15</v>
+      </c>
+      <c r="F77" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>54.24</v>
+      </c>
+      <c r="J77" s="1">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="K77" s="1">
+        <v>96.72</v>
+      </c>
+      <c r="L77" s="1">
+        <v>99.77</v>
+      </c>
+      <c r="M77" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="N77" s="1">
+        <v>41.28</v>
+      </c>
+      <c r="O77" s="1">
+        <v>54.61</v>
+      </c>
+      <c r="P77" s="1">
+        <v>77.150000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>36.97</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40.58</v>
+      </c>
+      <c r="C78" s="1">
+        <v>38.78</v>
+      </c>
+      <c r="D78" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="E78" s="1">
+        <v>39.68</v>
+      </c>
+      <c r="F78" s="1">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>58.02</v>
+      </c>
+      <c r="C79" s="1">
+        <v>53.31</v>
+      </c>
+      <c r="D79" s="1">
+        <v>53.81</v>
+      </c>
+      <c r="E79" s="1">
+        <v>53.51</v>
+      </c>
+      <c r="F79" s="1">
+        <v>54.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="B80" s="1">
+        <v>80.66</v>
+      </c>
+      <c r="C80" s="1">
+        <v>77.56</v>
+      </c>
+      <c r="D80" s="1">
+        <v>75.55</v>
+      </c>
+      <c r="E80" s="1">
+        <v>75.45</v>
+      </c>
+      <c r="F80" s="1">
+        <v>77.150000000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="E14:E17"/>
@@ -1494,6 +2064,11 @@
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E41:E44"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
